--- a/matched_research.xlsx
+++ b/matched_research.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3568D634-E62B-964C-BEBC-0E28AA0604FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="197">
   <si>
     <t>item_nr</t>
   </si>
@@ -631,7 +633,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,7 +707,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,9 +725,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -764,9 +765,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -801,7 +802,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1009,16 +1010,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="149" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1070,7 @@
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1114,17 +1118,17 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>5416</v>
       </c>
       <c r="E3">
@@ -1142,27 +1146,26 @@
       <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>6177</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3">
         <v>280.65839999999997</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>5726</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3">
         <v>0.626</v>
       </c>
-      <c r="N3" s="4">
-        <v>5</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1266,7 +1269,7 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>1567</v>
       </c>
       <c r="E6">
@@ -1303,7 +1306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1454,7 +1457,7 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>1532</v>
       </c>
       <c r="E10">
@@ -1491,7 +1494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1538,54 +1541,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>1065</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>48.389400000000002</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>962</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>0.1052</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
         <v>1728</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12">
         <v>78.513499999999993</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>1569</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>0.17150000000000001</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1595,7 +1598,7 @@
       <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>1234</v>
       </c>
       <c r="E13">
@@ -1632,7 +1635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1642,7 +1645,7 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>1965</v>
       </c>
       <c r="E14">
@@ -1679,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1736,25 +1739,25 @@
       <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>2085</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>94.734099999999998</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>1939</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16">
         <v>0.21199999999999999</v>
       </c>
-      <c r="H16" s="4">
-        <v>5</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
         <v>1932</v>
       </c>
       <c r="K16">
@@ -1773,7 +1776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1783,7 +1786,7 @@
       <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>5232</v>
       </c>
       <c r="E17">
@@ -1820,7 +1823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1830,7 +1833,7 @@
       <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>11614</v>
       </c>
       <c r="E18">
@@ -1867,54 +1870,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>5087</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <v>231.13310000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>2886</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19">
         <v>0.3155</v>
       </c>
-      <c r="H19" s="4">
-        <v>5</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
         <v>5806</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19">
         <v>263.80160000000001</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19">
         <v>5524</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19">
         <v>0.60389999999999999</v>
       </c>
-      <c r="N19" s="4">
-        <v>5</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1924,25 +1927,25 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>3564</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20">
         <v>161.934</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>3151</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20">
         <v>0.34449999999999997</v>
       </c>
-      <c r="H20" s="4">
-        <v>5</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
         <v>2806</v>
       </c>
       <c r="K20">
@@ -1961,7 +1964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1986,7 +1989,7 @@
       <c r="H21">
         <v>6</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" t="s">
         <v>17</v>
       </c>
       <c r="J21">
@@ -2008,7 +2011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2033,29 +2036,29 @@
       <c r="H22">
         <v>4</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
         <v>1062</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22">
         <v>48.253100000000003</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22">
         <v>937</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22">
         <v>0.1024</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22">
         <v>4</v>
       </c>
       <c r="O22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2196,14 +2199,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
       <c r="D26">
@@ -2243,14 +2246,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>66</v>
       </c>
       <c r="D27">
@@ -2290,7 +2293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2300,22 +2303,22 @@
       <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28">
         <v>1837</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28">
         <v>83.465999999999994</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28">
         <v>1655</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28">
         <v>0.18090000000000001</v>
       </c>
-      <c r="H28" s="4">
-        <v>5</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
         <v>17</v>
       </c>
       <c r="J28">
@@ -2337,7 +2340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2365,26 +2368,26 @@
       <c r="I29" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29">
         <v>1069</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29">
         <v>48.571100000000001</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29">
         <v>1042</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29">
         <v>0.1139</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29">
         <v>5</v>
       </c>
       <c r="O29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2394,22 +2397,22 @@
       <c r="C30" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
         <v>1283</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30">
         <v>58.294400000000003</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30">
         <v>1123</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30">
         <v>0.12280000000000001</v>
       </c>
-      <c r="H30" s="4">
-        <v>5</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
         <v>17</v>
       </c>
       <c r="J30">
@@ -2431,7 +2434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2456,7 +2459,7 @@
       <c r="H31">
         <v>6</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" t="s">
         <v>18</v>
       </c>
       <c r="J31">
@@ -2478,7 +2481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2506,7 +2509,7 @@
       <c r="I32" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32">
         <v>1604</v>
       </c>
       <c r="K32">
@@ -2525,7 +2528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2600,7 +2603,7 @@
       <c r="I34" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34">
         <v>17666</v>
       </c>
       <c r="K34">
@@ -2619,7 +2622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2629,7 +2632,7 @@
       <c r="C35" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35">
         <v>4231</v>
       </c>
       <c r="E35">
@@ -2647,7 +2650,7 @@
       <c r="I35" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35">
         <v>4559</v>
       </c>
       <c r="K35">
@@ -2666,7 +2669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2676,25 +2679,25 @@
       <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36">
         <v>1381</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36">
         <v>62.747199999999999</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36">
         <v>1231</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36">
         <v>0.1346</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36">
         <v>4</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="4">
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
         <v>1579</v>
       </c>
       <c r="K36">
@@ -2713,7 +2716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2723,44 +2726,44 @@
       <c r="C37" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37">
         <v>1893</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37">
         <v>86.010400000000004</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37">
         <v>1526</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37">
         <v>0.1668</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37">
         <v>4</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="4">
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
         <v>1276</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37">
         <v>57.976399999999998</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37">
         <v>1173</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37">
         <v>0.12820000000000001</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37">
         <v>4</v>
       </c>
-      <c r="O37" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2785,7 +2788,7 @@
       <c r="H38">
         <v>4</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" t="s">
         <v>17</v>
       </c>
       <c r="J38">
@@ -2807,14 +2810,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>90</v>
       </c>
       <c r="D39">
@@ -2832,7 +2835,7 @@
       <c r="H39">
         <v>6</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" t="s">
         <v>17</v>
       </c>
       <c r="J39">
@@ -2854,7 +2857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2879,7 +2882,7 @@
       <c r="H40">
         <v>6</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" t="s">
         <v>17</v>
       </c>
       <c r="J40">
@@ -2901,7 +2904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2911,22 +2914,22 @@
       <c r="C41" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41">
         <v>2152</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41">
         <v>97.778300000000002</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41">
         <v>1865</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41">
         <v>0.2039</v>
       </c>
-      <c r="H41" s="4">
-        <v>5</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41" t="s">
         <v>18</v>
       </c>
       <c r="J41">
@@ -2948,7 +2951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2958,22 +2961,22 @@
       <c r="C42" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42">
         <v>1075</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42">
         <v>48.843699999999998</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42">
         <v>877</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42">
         <v>6</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" t="s">
         <v>18</v>
       </c>
       <c r="J42">
@@ -2995,7 +2998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3005,7 +3008,7 @@
       <c r="C43" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43">
         <v>1677</v>
       </c>
       <c r="E43">
@@ -3023,7 +3026,7 @@
       <c r="I43" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43">
         <v>1695</v>
       </c>
       <c r="K43">
@@ -3042,7 +3045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3193,25 +3196,25 @@
       <c r="C47" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47">
         <v>1784</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47">
         <v>81.057900000000004</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47">
         <v>1495</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47">
         <v>0.16339999999999999</v>
       </c>
-      <c r="H47" s="4">
-        <v>5</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="4">
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47">
         <v>1234</v>
       </c>
       <c r="K47">
@@ -3230,7 +3233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3258,7 +3261,7 @@
       <c r="I48" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48">
         <v>5981</v>
       </c>
       <c r="K48">
@@ -3277,7 +3280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3287,25 +3290,25 @@
       <c r="C49" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49">
         <v>2613</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49">
         <v>118.7244</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49">
         <v>2059</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49">
         <v>0.22509999999999999</v>
       </c>
-      <c r="H49" s="4">
-        <v>5</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="4">
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49">
         <v>3440</v>
       </c>
       <c r="K49">
@@ -3324,7 +3327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3381,22 +3384,22 @@
       <c r="C51" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51">
         <v>1270</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51">
         <v>57.703800000000001</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51">
         <v>1174</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51">
         <v>0.1283</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51">
         <v>6</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" t="s">
         <v>18</v>
       </c>
       <c r="J51">
@@ -3418,7 +3421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3428,25 +3431,25 @@
       <c r="C52" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52">
         <v>4708</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52">
         <v>213.9128</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52">
         <v>4170</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52">
         <v>0.45590000000000003</v>
       </c>
-      <c r="H52" s="4">
-        <v>5</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="4">
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52">
         <v>3793</v>
       </c>
       <c r="K52">
@@ -3465,7 +3468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3493,7 +3496,7 @@
       <c r="I53" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53">
         <v>1198</v>
       </c>
       <c r="K53">
@@ -3512,7 +3515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3606,17 +3609,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>123</v>
       </c>
       <c r="C56" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56">
         <v>8359</v>
       </c>
       <c r="E56">
@@ -3634,7 +3637,7 @@
       <c r="I56" t="s">
         <v>18</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56">
         <v>7578</v>
       </c>
       <c r="K56">
@@ -3653,11 +3656,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>125</v>
       </c>
       <c r="C57" t="s">
@@ -3700,11 +3703,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>127</v>
       </c>
       <c r="C58" t="s">
@@ -3747,7 +3750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3775,7 +3778,7 @@
       <c r="I59" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59">
         <v>1888</v>
       </c>
       <c r="K59">
@@ -3794,7 +3797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3869,7 +3872,7 @@
       <c r="I61" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61">
         <v>2611</v>
       </c>
       <c r="K61">
@@ -3888,7 +3891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4151,7 +4154,7 @@
       <c r="I67" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67">
         <v>1373</v>
       </c>
       <c r="K67">
@@ -4170,7 +4173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4245,26 +4248,26 @@
       <c r="I69" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J69">
         <v>1062</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69">
         <v>48.253100000000003</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69">
         <v>986</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M69">
         <v>0.10780000000000001</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N69">
         <v>5</v>
       </c>
       <c r="O69" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4311,7 +4314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4433,7 +4436,7 @@
       <c r="I73" t="s">
         <v>18</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73">
         <v>1517</v>
       </c>
       <c r="K73">
@@ -4452,7 +4455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4546,14 +4549,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>164</v>
       </c>
       <c r="D76">
@@ -4571,36 +4574,36 @@
       <c r="H76">
         <v>6</v>
       </c>
-      <c r="I76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="4">
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76">
         <v>1575</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76">
         <v>71.561800000000005</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76">
         <v>1304</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M76">
         <v>0.1426</v>
       </c>
-      <c r="N76" s="4">
+      <c r="N76">
         <v>6</v>
       </c>
       <c r="O76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>165</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>166</v>
       </c>
       <c r="D77">
@@ -4618,7 +4621,7 @@
       <c r="H77">
         <v>6</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I77" t="s">
         <v>17</v>
       </c>
       <c r="J77">
@@ -4640,14 +4643,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>167</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" t="s">
         <v>168</v>
       </c>
       <c r="D78">
@@ -4665,7 +4668,7 @@
       <c r="H78">
         <v>5</v>
       </c>
-      <c r="I78" s="4" t="s">
+      <c r="I78" t="s">
         <v>18</v>
       </c>
       <c r="J78">
@@ -4687,7 +4690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4712,7 +4715,7 @@
       <c r="H79">
         <v>6</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" t="s">
         <v>17</v>
       </c>
       <c r="J79">
@@ -4734,7 +4737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4762,7 +4765,7 @@
       <c r="I80" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80">
         <v>3389</v>
       </c>
       <c r="K80">
@@ -4781,7 +4784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4856,7 +4859,7 @@
       <c r="I82" t="s">
         <v>18</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82">
         <v>4370</v>
       </c>
       <c r="K82">
@@ -4875,7 +4878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4900,29 +4903,29 @@
       <c r="H83">
         <v>6</v>
       </c>
-      <c r="I83" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="4">
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83">
         <v>1565</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83">
         <v>71.107399999999998</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L83">
         <v>1244</v>
       </c>
-      <c r="M83" s="4">
+      <c r="M83">
         <v>0.13600000000000001</v>
       </c>
-      <c r="N83" s="4">
+      <c r="N83">
         <v>6</v>
       </c>
       <c r="O83" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4932,22 +4935,22 @@
       <c r="C84" t="s">
         <v>180</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84">
         <v>1593</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84">
         <v>72.379599999999996</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84">
         <v>1283</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84">
         <v>0.14030000000000001</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84">
         <v>6</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" t="s">
         <v>17</v>
       </c>
       <c r="J84">
@@ -4969,7 +4972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4997,7 +5000,7 @@
       <c r="I85" t="s">
         <v>18</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85">
         <v>1028</v>
       </c>
       <c r="K85">
@@ -5016,7 +5019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5044,7 +5047,7 @@
       <c r="I86" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86">
         <v>13879</v>
       </c>
       <c r="K86">
@@ -5063,7 +5066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5091,7 +5094,7 @@
       <c r="I87" t="s">
         <v>17</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J87">
         <v>3655</v>
       </c>
       <c r="K87">
@@ -5110,7 +5113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5138,7 +5141,7 @@
       <c r="I88" t="s">
         <v>18</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88">
         <v>4031</v>
       </c>
       <c r="K88">
@@ -5157,7 +5160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5296,6 +5299,121 @@
       </c>
       <c r="O91" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/matched_research.xlsx
+++ b/matched_research.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3568D634-E62B-964C-BEBC-0E28AA0604FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
+    <sheet name="pseudo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="384">
   <si>
     <t>item_nr</t>
   </si>
@@ -629,17 +629,586 @@
   <si>
     <t>bardak</t>
   </si>
+  <si>
+    <t>sultan</t>
+  </si>
+  <si>
+    <t>Pseudo</t>
+  </si>
+  <si>
+    <t>tarif</t>
+  </si>
+  <si>
+    <t>proje</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>Pair_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>vemi</t>
+  </si>
+  <si>
+    <t>vece</t>
+  </si>
+  <si>
+    <t>monu</t>
+  </si>
+  <si>
+    <t>kaın</t>
+  </si>
+  <si>
+    <t>vecü</t>
+  </si>
+  <si>
+    <t>ayay</t>
+  </si>
+  <si>
+    <t>geli</t>
+  </si>
+  <si>
+    <t>zecö</t>
+  </si>
+  <si>
+    <t>onut</t>
+  </si>
+  <si>
+    <t>kocı</t>
+  </si>
+  <si>
+    <t>hoda</t>
+  </si>
+  <si>
+    <t>zemi</t>
+  </si>
+  <si>
+    <t>veki</t>
+  </si>
+  <si>
+    <t>daan</t>
+  </si>
+  <si>
+    <t>kaak</t>
+  </si>
+  <si>
+    <t>saan</t>
+  </si>
+  <si>
+    <t>ayaro</t>
+  </si>
+  <si>
+    <t>rapkı</t>
+  </si>
+  <si>
+    <t>orkır</t>
+  </si>
+  <si>
+    <t>örtil</t>
+  </si>
+  <si>
+    <t>hanık</t>
+  </si>
+  <si>
+    <t>yokır</t>
+  </si>
+  <si>
+    <t>bilön</t>
+  </si>
+  <si>
+    <t>ranar</t>
+  </si>
+  <si>
+    <t>dunım</t>
+  </si>
+  <si>
+    <t>ergiy</t>
+  </si>
+  <si>
+    <t>güvir</t>
+  </si>
+  <si>
+    <t>kahay</t>
+  </si>
+  <si>
+    <t>bevek</t>
+  </si>
+  <si>
+    <t>örtre</t>
+  </si>
+  <si>
+    <t>sapor</t>
+  </si>
+  <si>
+    <t>yarum</t>
+  </si>
+  <si>
+    <t>ortat</t>
+  </si>
+  <si>
+    <t>kakon</t>
+  </si>
+  <si>
+    <t>tonam</t>
+  </si>
+  <si>
+    <t>kanır</t>
+  </si>
+  <si>
+    <t>düzet</t>
+  </si>
+  <si>
+    <t>taşal</t>
+  </si>
+  <si>
+    <t>şekik</t>
+  </si>
+  <si>
+    <t>kahan</t>
+  </si>
+  <si>
+    <t>bılan</t>
+  </si>
+  <si>
+    <t>ornır</t>
+  </si>
+  <si>
+    <t>şemim</t>
+  </si>
+  <si>
+    <t>anlgı</t>
+  </si>
+  <si>
+    <t>duzur</t>
+  </si>
+  <si>
+    <t>orkıt</t>
+  </si>
+  <si>
+    <t>yapor</t>
+  </si>
+  <si>
+    <t>tonık</t>
+  </si>
+  <si>
+    <t>düvre</t>
+  </si>
+  <si>
+    <t>raygo</t>
+  </si>
+  <si>
+    <t>netüm</t>
+  </si>
+  <si>
+    <t>döves</t>
+  </si>
+  <si>
+    <t>şevci</t>
+  </si>
+  <si>
+    <t>tevim</t>
+  </si>
+  <si>
+    <t>dedyü</t>
+  </si>
+  <si>
+    <t>ertre</t>
+  </si>
+  <si>
+    <t>düvem</t>
+  </si>
+  <si>
+    <t>tefem</t>
+  </si>
+  <si>
+    <t>bikir</t>
+  </si>
+  <si>
+    <t>devcö</t>
+  </si>
+  <si>
+    <t>hurık</t>
+  </si>
+  <si>
+    <t>kakuk</t>
+  </si>
+  <si>
+    <t>ortar</t>
+  </si>
+  <si>
+    <t>yokın</t>
+  </si>
+  <si>
+    <t>hayık</t>
+  </si>
+  <si>
+    <t>yardız</t>
+  </si>
+  <si>
+    <t>çeyret</t>
+  </si>
+  <si>
+    <t>sandız</t>
+  </si>
+  <si>
+    <t>yargın</t>
+  </si>
+  <si>
+    <t>taiz</t>
+  </si>
+  <si>
+    <t>lilo</t>
+  </si>
+  <si>
+    <t>ikno</t>
+  </si>
+  <si>
+    <t>afel</t>
+  </si>
+  <si>
+    <t>fane</t>
+  </si>
+  <si>
+    <t>aira</t>
+  </si>
+  <si>
+    <t>annö</t>
+  </si>
+  <si>
+    <t>tami</t>
+  </si>
+  <si>
+    <t>otet</t>
+  </si>
+  <si>
+    <t>ilas</t>
+  </si>
+  <si>
+    <t>bilo</t>
+  </si>
+  <si>
+    <t>ailo</t>
+  </si>
+  <si>
+    <t>tain</t>
+  </si>
+  <si>
+    <t>esan</t>
+  </si>
+  <si>
+    <t>aine</t>
+  </si>
+  <si>
+    <t>adel</t>
+  </si>
+  <si>
+    <t>daken</t>
+  </si>
+  <si>
+    <t>pisan</t>
+  </si>
+  <si>
+    <t>sekon</t>
+  </si>
+  <si>
+    <t>tadde</t>
+  </si>
+  <si>
+    <t>deval</t>
+  </si>
+  <si>
+    <t>ihrul</t>
+  </si>
+  <si>
+    <t>esnan</t>
+  </si>
+  <si>
+    <t>nirus</t>
+  </si>
+  <si>
+    <t>hafer</t>
+  </si>
+  <si>
+    <t>dedya</t>
+  </si>
+  <si>
+    <t>seral</t>
+  </si>
+  <si>
+    <t>misaf</t>
+  </si>
+  <si>
+    <t>meval</t>
+  </si>
+  <si>
+    <t>finak</t>
+  </si>
+  <si>
+    <t>devak</t>
+  </si>
+  <si>
+    <t>omkih</t>
+  </si>
+  <si>
+    <t>işgaç</t>
+  </si>
+  <si>
+    <t>kulön</t>
+  </si>
+  <si>
+    <t>kilan</t>
+  </si>
+  <si>
+    <t>rerup</t>
+  </si>
+  <si>
+    <t>miyaj</t>
+  </si>
+  <si>
+    <t>mimal</t>
+  </si>
+  <si>
+    <t>nimal</t>
+  </si>
+  <si>
+    <t>tahçe</t>
+  </si>
+  <si>
+    <t>iptap</t>
+  </si>
+  <si>
+    <t>cedan</t>
+  </si>
+  <si>
+    <t>haköl</t>
+  </si>
+  <si>
+    <t>molit</t>
+  </si>
+  <si>
+    <t>mesan</t>
+  </si>
+  <si>
+    <t>kinam</t>
+  </si>
+  <si>
+    <t>mesap</t>
+  </si>
+  <si>
+    <t>işgon</t>
+  </si>
+  <si>
+    <t>sabet</t>
+  </si>
+  <si>
+    <t>fimap</t>
+  </si>
+  <si>
+    <t>mesal</t>
+  </si>
+  <si>
+    <t>işgar</t>
+  </si>
+  <si>
+    <t>fidor</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>makih</t>
+  </si>
+  <si>
+    <t>paheç</t>
+  </si>
+  <si>
+    <t>garit</t>
+  </si>
+  <si>
+    <t>kirul</t>
+  </si>
+  <si>
+    <t>vahçe</t>
+  </si>
+  <si>
+    <t>işgap</t>
+  </si>
+  <si>
+    <t>diyam</t>
+  </si>
+  <si>
+    <t>baket</t>
+  </si>
+  <si>
+    <t>minya</t>
+  </si>
+  <si>
+    <t>tarmö</t>
+  </si>
+  <si>
+    <t>taden</t>
+  </si>
+  <si>
+    <t>yardeş</t>
+  </si>
+  <si>
+    <t>işarek</t>
+  </si>
+  <si>
+    <t>yandiz</t>
+  </si>
+  <si>
+    <t>kardez</t>
+  </si>
+  <si>
+    <t>norgun</t>
+  </si>
+  <si>
+    <t>parlam</t>
+  </si>
+  <si>
+    <t>hardız</t>
+  </si>
+  <si>
+    <t>meslet</t>
+  </si>
+  <si>
+    <t>millek</t>
+  </si>
+  <si>
+    <t>yarlam</t>
+  </si>
+  <si>
+    <t>kardak</t>
+  </si>
+  <si>
+    <t>noruma</t>
+  </si>
+  <si>
+    <t>hardım</t>
+  </si>
+  <si>
+    <t>gerkez</t>
+  </si>
+  <si>
+    <t>yayram</t>
+  </si>
+  <si>
+    <t>bardım</t>
+  </si>
+  <si>
+    <t>hayram</t>
+  </si>
+  <si>
+    <t>korgun</t>
+  </si>
+  <si>
+    <t>adalek</t>
+  </si>
+  <si>
+    <t>rekrar</t>
+  </si>
+  <si>
+    <t>şahmin</t>
+  </si>
+  <si>
+    <t>pardeş</t>
+  </si>
+  <si>
+    <t>tahane</t>
+  </si>
+  <si>
+    <t>barika</t>
+  </si>
+  <si>
+    <t>bardeş</t>
+  </si>
+  <si>
+    <t>tekram</t>
+  </si>
+  <si>
+    <t>hardeş</t>
+  </si>
+  <si>
+    <t>toklam</t>
+  </si>
+  <si>
+    <t>yarıka</t>
+  </si>
+  <si>
+    <t>karuka</t>
+  </si>
+  <si>
+    <t>düşmöl</t>
+  </si>
+  <si>
+    <t>rekrüm</t>
+  </si>
+  <si>
+    <t>reklök</t>
+  </si>
+  <si>
+    <t>paruka</t>
+  </si>
+  <si>
+    <t>bayvün</t>
+  </si>
+  <si>
+    <t>haygin</t>
+  </si>
+  <si>
+    <t>yeyrar</t>
+  </si>
+  <si>
+    <t>yormün</t>
+  </si>
+  <si>
+    <t>heyrar</t>
+  </si>
+  <si>
+    <t>kormel</t>
+  </si>
+  <si>
+    <t>merçık</t>
+  </si>
+  <si>
+    <t>yarlök</t>
+  </si>
+  <si>
+    <t>normin</t>
+  </si>
+  <si>
+    <t>pardük</t>
+  </si>
+  <si>
+    <t>seğlık</t>
+  </si>
+  <si>
+    <t>yırdöm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -684,7 +1253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -692,21 +1261,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,9 +1310,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -765,9 +1350,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,7 +1387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,7 +1422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1010,19 +1595,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A75" zoomScale="131" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1652,7 @@
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1113,22 +1695,22 @@
       <c r="N2">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>5416</v>
       </c>
       <c r="E3">
@@ -1146,26 +1728,27 @@
       <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>6177</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>280.65839999999997</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>5726</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>0.626</v>
       </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="4">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1212,7 +1795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1259,7 +1842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1269,7 +1852,7 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>1567</v>
       </c>
       <c r="E6">
@@ -1306,7 +1889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1353,7 +1936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1400,7 +1983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1447,7 +2030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1457,7 +2040,7 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>1532</v>
       </c>
       <c r="E10">
@@ -1494,7 +2077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1541,54 +2124,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>1065</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>48.389400000000002</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>962</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>0.1052</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>6</v>
       </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12">
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="4">
         <v>1728</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>78.513499999999993</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>1569</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>0.17150000000000001</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>6</v>
       </c>
-      <c r="O12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1598,7 +2181,7 @@
       <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>1234</v>
       </c>
       <c r="E13">
@@ -1635,7 +2218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1645,7 +2228,7 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>1965</v>
       </c>
       <c r="E14">
@@ -1682,7 +2265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1729,7 +2312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1739,25 +2322,25 @@
       <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>2085</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>94.734099999999998</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>1939</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>0.21199999999999999</v>
       </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16">
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="4">
         <v>1932</v>
       </c>
       <c r="K16">
@@ -1776,7 +2359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1786,7 +2369,7 @@
       <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>5232</v>
       </c>
       <c r="E17">
@@ -1823,7 +2406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1833,7 +2416,7 @@
       <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>11614</v>
       </c>
       <c r="E18">
@@ -1870,54 +2453,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>5087</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>231.13310000000001</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>2886</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>0.3155</v>
       </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19">
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="4">
         <v>5806</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>263.80160000000001</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>5524</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>0.60389999999999999</v>
       </c>
-      <c r="N19">
-        <v>5</v>
-      </c>
-      <c r="O19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N19" s="4">
+        <v>5</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1927,25 +2510,25 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>3564</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>161.934</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>3151</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>0.34449999999999997</v>
       </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20">
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4">
         <v>2806</v>
       </c>
       <c r="K20">
@@ -1964,7 +2547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1989,7 +2572,7 @@
       <c r="H21">
         <v>6</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J21">
@@ -2011,7 +2594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2036,29 +2619,29 @@
       <c r="H22">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22">
+      <c r="I22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="4">
         <v>1062</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>48.253100000000003</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>937</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="4">
         <v>0.1024</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>4</v>
       </c>
       <c r="O22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2105,7 +2688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2152,7 +2735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2199,14 +2782,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D26">
@@ -2246,14 +2829,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D27">
@@ -2293,7 +2876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2303,22 +2886,22 @@
       <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>1837</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>83.465999999999994</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>1655</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>0.18090000000000001</v>
       </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" s="4">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J28">
@@ -2340,7 +2923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2368,26 +2951,26 @@
       <c r="I29" t="s">
         <v>17</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>1069</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>48.571100000000001</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>1042</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
         <v>0.1139</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>5</v>
       </c>
       <c r="O29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2397,22 +2980,22 @@
       <c r="C30" t="s">
         <v>72</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>1283</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>58.294400000000003</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>1123</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>0.12280000000000001</v>
       </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="4">
+        <v>5</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J30">
@@ -2434,7 +3017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2459,7 +3042,7 @@
       <c r="H31">
         <v>6</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J31">
@@ -2481,7 +3064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2509,7 +3092,7 @@
       <c r="I32" t="s">
         <v>17</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>1604</v>
       </c>
       <c r="K32">
@@ -2528,7 +3111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2575,7 +3158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2603,7 +3186,7 @@
       <c r="I34" t="s">
         <v>17</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="4">
         <v>17666</v>
       </c>
       <c r="K34">
@@ -2622,7 +3205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2632,7 +3215,7 @@
       <c r="C35" t="s">
         <v>82</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>4231</v>
       </c>
       <c r="E35">
@@ -2650,7 +3233,7 @@
       <c r="I35" t="s">
         <v>17</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>4559</v>
       </c>
       <c r="K35">
@@ -2669,7 +3252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2679,25 +3262,25 @@
       <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>1381</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>62.747199999999999</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <v>1231</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <v>0.1346</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="4">
         <v>4</v>
       </c>
-      <c r="I36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36">
+      <c r="I36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="4">
         <v>1579</v>
       </c>
       <c r="K36">
@@ -2716,7 +3299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2726,44 +3309,44 @@
       <c r="C37" t="s">
         <v>86</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>1893</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>86.010400000000004</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>1526</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>0.1668</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <v>4</v>
       </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="4">
         <v>1276</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="4">
         <v>57.976399999999998</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="4">
         <v>1173</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="4">
         <v>0.12820000000000001</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="4">
         <v>4</v>
       </c>
-      <c r="O37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O37" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2788,7 +3371,7 @@
       <c r="H38">
         <v>4</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J38">
@@ -2810,14 +3393,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D39">
@@ -2835,7 +3418,7 @@
       <c r="H39">
         <v>6</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J39">
@@ -2857,7 +3440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2882,7 +3465,7 @@
       <c r="H40">
         <v>6</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J40">
@@ -2904,7 +3487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2914,22 +3497,22 @@
       <c r="C41" t="s">
         <v>94</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>2152</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>97.778300000000002</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>1865</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>0.2039</v>
       </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H41" s="4">
+        <v>5</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J41">
@@ -2951,7 +3534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2961,22 +3544,22 @@
       <c r="C42" t="s">
         <v>96</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>1075</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>48.843699999999998</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>877</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <v>6</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J42">
@@ -2998,7 +3581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3008,7 +3591,7 @@
       <c r="C43" t="s">
         <v>98</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <v>1677</v>
       </c>
       <c r="E43">
@@ -3026,7 +3609,7 @@
       <c r="I43" t="s">
         <v>18</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="4">
         <v>1695</v>
       </c>
       <c r="K43">
@@ -3045,7 +3628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3092,7 +3675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3139,7 +3722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3186,7 +3769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3196,25 +3779,25 @@
       <c r="C47" t="s">
         <v>106</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>1784</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>81.057900000000004</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>1495</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>0.16339999999999999</v>
       </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47">
+      <c r="H47" s="4">
+        <v>5</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="4">
         <v>1234</v>
       </c>
       <c r="K47">
@@ -3233,7 +3816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3261,7 +3844,7 @@
       <c r="I48" t="s">
         <v>18</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="4">
         <v>5981</v>
       </c>
       <c r="K48">
@@ -3280,7 +3863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3290,25 +3873,25 @@
       <c r="C49" t="s">
         <v>110</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
         <v>2613</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>118.7244</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>2059</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>0.22509999999999999</v>
       </c>
-      <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="I49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49">
+      <c r="H49" s="4">
+        <v>5</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="4">
         <v>3440</v>
       </c>
       <c r="K49">
@@ -3327,7 +3910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3374,7 +3957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3384,22 +3967,22 @@
       <c r="C51" t="s">
         <v>114</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>1270</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>57.703800000000001</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>1174</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>0.1283</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>6</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J51">
@@ -3421,7 +4004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3431,25 +4014,25 @@
       <c r="C52" t="s">
         <v>116</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="4">
         <v>4708</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>213.9128</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>4170</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="4">
         <v>0.45590000000000003</v>
       </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="I52" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52">
+      <c r="H52" s="4">
+        <v>5</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="4">
         <v>3793</v>
       </c>
       <c r="K52">
@@ -3468,7 +4051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3496,7 +4079,7 @@
       <c r="I53" t="s">
         <v>18</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="4">
         <v>1198</v>
       </c>
       <c r="K53">
@@ -3515,7 +4098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3562,7 +4145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3609,17 +4192,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C56" t="s">
         <v>124</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="4">
         <v>8359</v>
       </c>
       <c r="E56">
@@ -3637,7 +4220,7 @@
       <c r="I56" t="s">
         <v>18</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="4">
         <v>7578</v>
       </c>
       <c r="K56">
@@ -3656,11 +4239,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C57" t="s">
@@ -3703,11 +4286,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C58" t="s">
@@ -3750,7 +4333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3778,7 +4361,7 @@
       <c r="I59" t="s">
         <v>17</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="4">
         <v>1888</v>
       </c>
       <c r="K59">
@@ -3797,7 +4380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3844,7 +4427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3872,7 +4455,7 @@
       <c r="I61" t="s">
         <v>17</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="4">
         <v>2611</v>
       </c>
       <c r="K61">
@@ -3891,7 +4474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3938,7 +4521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3985,7 +4568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4032,7 +4615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4079,7 +4662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4126,7 +4709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4154,7 +4737,7 @@
       <c r="I67" t="s">
         <v>18</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="4">
         <v>1373</v>
       </c>
       <c r="K67">
@@ -4173,7 +4756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4220,7 +4803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4248,26 +4831,26 @@
       <c r="I69" t="s">
         <v>17</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="4">
         <v>1062</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="4">
         <v>48.253100000000003</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="4">
         <v>986</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="4">
         <v>0.10780000000000001</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="4">
         <v>5</v>
       </c>
       <c r="O69" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4314,7 +4897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4361,7 +4944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4408,7 +4991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4436,7 +5019,7 @@
       <c r="I73" t="s">
         <v>18</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="4">
         <v>1517</v>
       </c>
       <c r="K73">
@@ -4455,7 +5038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4502,7 +5085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4549,14 +5132,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>163</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D76">
@@ -4574,36 +5157,36 @@
       <c r="H76">
         <v>6</v>
       </c>
-      <c r="I76" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76">
+      <c r="I76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="4">
         <v>1575</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="4">
         <v>71.561800000000005</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="4">
         <v>1304</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="4">
         <v>0.1426</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="4">
         <v>6</v>
       </c>
       <c r="O76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>165</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D77">
@@ -4621,7 +5204,7 @@
       <c r="H77">
         <v>6</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J77">
@@ -4643,14 +5226,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>167</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D78">
@@ -4668,7 +5251,7 @@
       <c r="H78">
         <v>5</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J78">
@@ -4690,7 +5273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4715,7 +5298,7 @@
       <c r="H79">
         <v>6</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J79">
@@ -4737,7 +5320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4765,7 +5348,7 @@
       <c r="I80" t="s">
         <v>17</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="4">
         <v>3389</v>
       </c>
       <c r="K80">
@@ -4784,7 +5367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4831,7 +5414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4859,7 +5442,7 @@
       <c r="I82" t="s">
         <v>18</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="4">
         <v>4370</v>
       </c>
       <c r="K82">
@@ -4878,7 +5461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4903,29 +5486,29 @@
       <c r="H83">
         <v>6</v>
       </c>
-      <c r="I83" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83">
+      <c r="I83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="4">
         <v>1565</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="4">
         <v>71.107399999999998</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="4">
         <v>1244</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="4">
         <v>6</v>
       </c>
       <c r="O83" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4935,22 +5518,22 @@
       <c r="C84" t="s">
         <v>180</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="4">
         <v>1593</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="4">
         <v>72.379599999999996</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="4">
         <v>1283</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="4">
         <v>0.14030000000000001</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="4">
         <v>6</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J84">
@@ -4972,7 +5555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5000,7 +5583,7 @@
       <c r="I85" t="s">
         <v>18</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="4">
         <v>1028</v>
       </c>
       <c r="K85">
@@ -5019,7 +5602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5047,7 +5630,7 @@
       <c r="I86" t="s">
         <v>17</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="4">
         <v>13879</v>
       </c>
       <c r="K86">
@@ -5066,7 +5649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5094,7 +5677,7 @@
       <c r="I87" t="s">
         <v>17</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="4">
         <v>3655</v>
       </c>
       <c r="K87">
@@ -5113,7 +5696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5141,7 +5724,7 @@
       <c r="I88" t="s">
         <v>18</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="4">
         <v>4031</v>
       </c>
       <c r="K88">
@@ -5160,7 +5743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5207,7 +5790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5254,7 +5837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5307,116 +5890,5815 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181:XFD181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>4154</v>
+      </c>
+      <c r="D2">
+        <v>188.7413</v>
+      </c>
+      <c r="E2">
+        <v>3788</v>
+      </c>
+      <c r="F2">
+        <v>0.41410000000000002</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>1082</v>
+      </c>
+      <c r="D3">
+        <v>49.161799999999999</v>
+      </c>
+      <c r="E3">
+        <v>976</v>
+      </c>
+      <c r="F3">
+        <v>0.1067</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>2363</v>
+      </c>
+      <c r="D4">
+        <v>107.3653</v>
+      </c>
+      <c r="E4">
+        <v>1894</v>
+      </c>
+      <c r="F4">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>2193</v>
+      </c>
+      <c r="D5">
+        <v>99.641199999999998</v>
+      </c>
+      <c r="E5">
+        <v>2015</v>
+      </c>
+      <c r="F5">
+        <v>0.2203</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>2803</v>
+      </c>
+      <c r="D6">
+        <v>127.35720000000001</v>
+      </c>
+      <c r="E6">
+        <v>2690</v>
+      </c>
+      <c r="F6">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7">
+        <v>1818</v>
+      </c>
+      <c r="D7">
+        <v>82.602699999999999</v>
+      </c>
+      <c r="E7">
+        <v>1720</v>
+      </c>
+      <c r="F7">
+        <v>0.188</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8">
+        <v>1775</v>
+      </c>
+      <c r="D8">
+        <v>80.649000000000001</v>
+      </c>
+      <c r="E8">
+        <v>1532</v>
+      </c>
+      <c r="F8">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9">
+        <v>1948</v>
+      </c>
+      <c r="D9">
+        <v>88.509399999999999</v>
+      </c>
+      <c r="E9">
+        <v>1648</v>
+      </c>
+      <c r="F9">
+        <v>0.1802</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10">
+        <v>1658</v>
+      </c>
+      <c r="D10">
+        <v>75.332899999999995</v>
+      </c>
+      <c r="E10">
+        <v>1508</v>
+      </c>
+      <c r="F10">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11">
+        <v>1398</v>
+      </c>
+      <c r="D11">
+        <v>63.519599999999997</v>
+      </c>
+      <c r="E11">
+        <v>1300</v>
+      </c>
+      <c r="F11">
+        <v>0.1421</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12">
+        <v>1675</v>
+      </c>
+      <c r="D12">
+        <v>76.105400000000003</v>
+      </c>
+      <c r="E12">
+        <v>1524</v>
+      </c>
+      <c r="F12">
+        <v>0.1666</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13">
+        <v>1551</v>
+      </c>
+      <c r="D13">
+        <v>70.471299999999999</v>
+      </c>
+      <c r="E13">
+        <v>1355</v>
+      </c>
+      <c r="F13">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14">
+        <v>1445</v>
+      </c>
+      <c r="D14">
+        <v>65.655100000000004</v>
+      </c>
+      <c r="E14">
+        <v>1255</v>
+      </c>
+      <c r="F14">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1593</v>
+      </c>
+      <c r="D15" s="4">
+        <v>72.379599999999996</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1283</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16">
+        <v>8983</v>
+      </c>
+      <c r="D16">
+        <v>408.15190000000001</v>
+      </c>
+      <c r="E16">
+        <v>8058</v>
+      </c>
+      <c r="F16">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17">
+        <v>6604</v>
+      </c>
+      <c r="D17">
+        <v>300.05959999999999</v>
+      </c>
+      <c r="E17">
+        <v>6264</v>
+      </c>
+      <c r="F17">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18">
+        <v>5891</v>
+      </c>
+      <c r="D18">
+        <v>267.66370000000001</v>
+      </c>
+      <c r="E18">
+        <v>5440</v>
+      </c>
+      <c r="F18">
+        <v>0.59470000000000001</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>3023</v>
+      </c>
+      <c r="D19">
+        <v>137.35310000000001</v>
+      </c>
+      <c r="E19">
+        <v>2689</v>
+      </c>
+      <c r="F19">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1728</v>
+      </c>
+      <c r="D20" s="4">
+        <v>78.513499999999993</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1569</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21">
+        <v>1153</v>
+      </c>
+      <c r="D21">
+        <v>52.387700000000002</v>
+      </c>
+      <c r="E21">
+        <v>1108</v>
+      </c>
+      <c r="F21">
+        <v>0.1211</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>1142</v>
+      </c>
+      <c r="D22">
+        <v>51.887999999999998</v>
+      </c>
+      <c r="E22">
+        <v>1088</v>
+      </c>
+      <c r="F22">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>1061</v>
+      </c>
+      <c r="D23">
+        <v>48.207599999999999</v>
+      </c>
+      <c r="E23">
+        <v>1019</v>
+      </c>
+      <c r="F23">
+        <v>0.1114</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24">
+        <v>1187</v>
+      </c>
+      <c r="D24">
+        <v>53.932600000000001</v>
+      </c>
+      <c r="E24">
+        <v>1066</v>
+      </c>
+      <c r="F24">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25">
+        <v>1756</v>
+      </c>
+      <c r="D25">
+        <v>79.785700000000006</v>
+      </c>
+      <c r="E25">
+        <v>1368</v>
+      </c>
+      <c r="F25">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4031</v>
+      </c>
+      <c r="D26">
+        <v>183.15270000000001</v>
+      </c>
+      <c r="E26">
+        <v>3554</v>
+      </c>
+      <c r="F26">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3007</v>
+      </c>
+      <c r="D27" s="7">
+        <v>136.62620000000001</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2842</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="G27" s="7">
+        <v>6</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1065</v>
+      </c>
+      <c r="D28" s="4">
+        <v>48.389400000000002</v>
+      </c>
+      <c r="E28" s="4">
+        <v>962</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.1052</v>
+      </c>
+      <c r="G28" s="4">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>1088</v>
+      </c>
+      <c r="D29">
+        <v>49.434399999999997</v>
+      </c>
+      <c r="E29">
+        <v>984</v>
+      </c>
+      <c r="F29">
+        <v>0.1076</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30">
+        <v>1092</v>
+      </c>
+      <c r="D30">
+        <v>49.616100000000003</v>
+      </c>
+      <c r="E30">
+        <v>1057</v>
+      </c>
+      <c r="F30">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1075</v>
+      </c>
+      <c r="D31" s="4">
+        <v>48.843699999999998</v>
+      </c>
+      <c r="E31" s="4">
+        <v>877</v>
+      </c>
+      <c r="F31" s="4">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>6</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1270</v>
+      </c>
+      <c r="D32" s="4">
+        <v>57.703800000000001</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1174</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.1283</v>
+      </c>
+      <c r="G32" s="4">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33">
+        <v>1864</v>
+      </c>
+      <c r="D33">
+        <v>84.692800000000005</v>
+      </c>
+      <c r="E33">
+        <v>1685</v>
+      </c>
+      <c r="F33">
+        <v>0.1842</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34">
+        <v>4682</v>
+      </c>
+      <c r="D34">
+        <v>212.73150000000001</v>
+      </c>
+      <c r="E34">
+        <v>4422</v>
+      </c>
+      <c r="F34">
+        <v>0.4834</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>3936</v>
+      </c>
+      <c r="D35">
+        <v>178.83619999999999</v>
+      </c>
+      <c r="E35">
+        <v>2958</v>
+      </c>
+      <c r="F35">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36">
+        <v>1153</v>
+      </c>
+      <c r="D36">
+        <v>52.387700000000002</v>
+      </c>
+      <c r="E36">
+        <v>1108</v>
+      </c>
+      <c r="F36">
+        <v>0.1211</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37">
+        <v>2353</v>
+      </c>
+      <c r="D37">
+        <v>106.911</v>
+      </c>
+      <c r="E37">
+        <v>2273</v>
+      </c>
+      <c r="F37">
+        <v>0.2485</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>2326</v>
+      </c>
+      <c r="D38">
+        <v>105.6842</v>
+      </c>
+      <c r="E38">
+        <v>2031</v>
+      </c>
+      <c r="F38">
+        <v>0.222</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39">
+        <v>2909</v>
+      </c>
+      <c r="D39">
+        <v>132.17339999999999</v>
+      </c>
+      <c r="E39">
+        <v>2445</v>
+      </c>
+      <c r="F39">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1888</v>
+      </c>
+      <c r="D40">
+        <v>85.783199999999994</v>
+      </c>
+      <c r="E40">
+        <v>1787</v>
+      </c>
+      <c r="F40">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41">
+        <v>1865</v>
+      </c>
+      <c r="D41">
+        <v>84.738200000000006</v>
+      </c>
+      <c r="E41">
+        <v>1597</v>
+      </c>
+      <c r="F41">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42">
+        <v>1871</v>
+      </c>
+      <c r="D42">
+        <v>85.010800000000003</v>
+      </c>
+      <c r="E42">
+        <v>1734</v>
+      </c>
+      <c r="F42">
+        <v>0.18959999999999999</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>75</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1575</v>
+      </c>
+      <c r="D43" s="4">
+        <v>71.561800000000005</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1304</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.1426</v>
+      </c>
+      <c r="G43" s="4">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>76</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44">
+        <v>1402</v>
+      </c>
+      <c r="D44">
+        <v>63.701300000000003</v>
+      </c>
+      <c r="E44">
+        <v>1270</v>
+      </c>
+      <c r="F44">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45">
+        <v>1611</v>
+      </c>
+      <c r="D45">
+        <v>73.197500000000005</v>
+      </c>
+      <c r="E45">
+        <v>1388</v>
+      </c>
+      <c r="F45">
+        <v>0.1517</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46">
+        <v>1555</v>
+      </c>
+      <c r="D46">
+        <v>70.653000000000006</v>
+      </c>
+      <c r="E46">
+        <v>1405</v>
+      </c>
+      <c r="F46">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1565</v>
+      </c>
+      <c r="D47" s="4">
+        <v>71.107399999999998</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1244</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G47" s="4">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48">
+        <v>1496</v>
+      </c>
+      <c r="D48">
+        <v>67.972300000000004</v>
+      </c>
+      <c r="E48">
+        <v>1078</v>
+      </c>
+      <c r="F48">
+        <v>0.1178</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>383</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49">
+        <v>10788</v>
+      </c>
+      <c r="D49">
+        <v>490.16390000000001</v>
+      </c>
+      <c r="E49">
+        <v>9352</v>
+      </c>
+      <c r="F49">
+        <v>1.0224</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>339</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50">
+        <v>6230</v>
+      </c>
+      <c r="D50">
+        <v>283.06650000000002</v>
+      </c>
+      <c r="E50">
+        <v>5888</v>
+      </c>
+      <c r="F50">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51">
+        <v>5891</v>
+      </c>
+      <c r="D51">
+        <v>267.66370000000001</v>
+      </c>
+      <c r="E51">
+        <v>5207</v>
+      </c>
+      <c r="F51">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>3121</v>
+      </c>
+      <c r="D52">
+        <v>141.80590000000001</v>
+      </c>
+      <c r="E52">
+        <v>2485</v>
+      </c>
+      <c r="F52">
+        <v>0.2717</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>220</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="4">
+        <v>5416</v>
+      </c>
+      <c r="D53">
+        <v>246.08160000000001</v>
+      </c>
+      <c r="E53">
+        <v>4885</v>
+      </c>
+      <c r="F53">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>2916</v>
+      </c>
+      <c r="D54">
+        <v>132.4915</v>
+      </c>
+      <c r="E54">
+        <v>2594</v>
+      </c>
+      <c r="F54">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>222</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>3301</v>
+      </c>
+      <c r="D55">
+        <v>149.98429999999999</v>
+      </c>
+      <c r="E55">
+        <v>2794</v>
+      </c>
+      <c r="F55">
+        <v>0.3054</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>223</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>4498</v>
+      </c>
+      <c r="D56">
+        <v>204.37129999999999</v>
+      </c>
+      <c r="E56">
+        <v>4079</v>
+      </c>
+      <c r="F56">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>224</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2085</v>
+      </c>
+      <c r="D57" s="4">
+        <v>94.734099999999998</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1939</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G57" s="4">
+        <v>5</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>225</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>18</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="4">
+        <v>5087</v>
+      </c>
+      <c r="D58" s="4">
+        <v>231.13310000000001</v>
+      </c>
+      <c r="E58" s="4">
+        <v>2886</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.3155</v>
+      </c>
+      <c r="G58" s="4">
+        <v>5</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="4">
+        <v>3564</v>
+      </c>
+      <c r="D59" s="4">
+        <v>161.934</v>
+      </c>
+      <c r="E59" s="4">
+        <v>3151</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="G59" s="4">
+        <v>5</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>227</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>2431</v>
+      </c>
+      <c r="D60">
+        <v>110.455</v>
+      </c>
+      <c r="E60">
+        <v>2140</v>
+      </c>
+      <c r="F60">
+        <v>0.2339</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>228</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>1877</v>
+      </c>
+      <c r="D61">
+        <v>85.2834</v>
+      </c>
+      <c r="E61">
+        <v>1760</v>
+      </c>
+      <c r="F61">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
+        <v>229</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>1730</v>
+      </c>
+      <c r="D62">
+        <v>78.604299999999995</v>
+      </c>
+      <c r="E62">
+        <v>1617</v>
+      </c>
+      <c r="F62">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>230</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1837</v>
+      </c>
+      <c r="D63" s="4">
+        <v>83.465999999999994</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1655</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="G63" s="4">
+        <v>5</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>231</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64">
+        <v>1094</v>
+      </c>
+      <c r="D64">
+        <v>49.707000000000001</v>
+      </c>
+      <c r="E64">
+        <v>961</v>
+      </c>
+      <c r="F64">
+        <v>0.1051</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>232</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1283</v>
+      </c>
+      <c r="D65" s="4">
+        <v>58.294400000000003</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1123</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="G65" s="4">
+        <v>5</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>233</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66">
+        <v>1911</v>
+      </c>
+      <c r="D66">
+        <v>86.828299999999999</v>
+      </c>
+      <c r="E66">
+        <v>1799</v>
+      </c>
+      <c r="F66">
+        <v>0.19670000000000001</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>234</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67">
+        <v>18293</v>
+      </c>
+      <c r="D67">
+        <v>831.16139999999996</v>
+      </c>
+      <c r="E67">
+        <v>16694</v>
+      </c>
+      <c r="F67">
+        <v>1.825</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>235</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="4">
+        <v>4231</v>
+      </c>
+      <c r="D68">
+        <v>192.23990000000001</v>
+      </c>
+      <c r="E68">
+        <v>3851</v>
+      </c>
+      <c r="F68">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>236</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>45</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69">
+        <v>3380</v>
+      </c>
+      <c r="D69">
+        <v>153.57380000000001</v>
+      </c>
+      <c r="E69">
+        <v>3185</v>
+      </c>
+      <c r="F69">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>51</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="4">
+        <v>4708</v>
+      </c>
+      <c r="D70" s="4">
+        <v>213.9128</v>
+      </c>
+      <c r="E70" s="4">
+        <v>4170</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.45590000000000003</v>
+      </c>
+      <c r="G70" s="4">
+        <v>5</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>54</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71">
+        <v>2506</v>
+      </c>
+      <c r="D71">
+        <v>113.8627</v>
+      </c>
+      <c r="E71">
+        <v>2188</v>
+      </c>
+      <c r="F71">
+        <v>0.2392</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>56</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72">
+        <v>2385</v>
+      </c>
+      <c r="D72">
+        <v>108.36490000000001</v>
+      </c>
+      <c r="E72">
+        <v>2017</v>
+      </c>
+      <c r="F72">
+        <v>0.2205</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73">
+        <v>1910</v>
+      </c>
+      <c r="D73">
+        <v>86.782799999999995</v>
+      </c>
+      <c r="E73">
+        <v>1605</v>
+      </c>
+      <c r="F73">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>61</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74">
+        <v>1044</v>
+      </c>
+      <c r="D74">
+        <v>47.435200000000002</v>
+      </c>
+      <c r="E74">
+        <v>901</v>
+      </c>
+      <c r="F74">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75">
+        <v>1911</v>
+      </c>
+      <c r="D75">
+        <v>86.828299999999999</v>
+      </c>
+      <c r="E75">
+        <v>1765</v>
+      </c>
+      <c r="F75">
+        <v>0.193</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76">
+        <v>2552</v>
+      </c>
+      <c r="D76">
+        <v>115.9528</v>
+      </c>
+      <c r="E76">
+        <v>2413</v>
+      </c>
+      <c r="F76">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>68</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77">
+        <v>1061</v>
+      </c>
+      <c r="D77">
+        <v>48.207599999999999</v>
+      </c>
+      <c r="E77">
+        <v>949</v>
+      </c>
+      <c r="F77">
+        <v>0.1037</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>245</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78">
+        <v>1704</v>
+      </c>
+      <c r="D78">
+        <v>77.423000000000002</v>
+      </c>
+      <c r="E78">
+        <v>1485</v>
+      </c>
+      <c r="F78">
+        <v>0.1623</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s">
+        <v>246</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79">
+        <v>1674</v>
+      </c>
+      <c r="D79">
+        <v>76.059899999999999</v>
+      </c>
+      <c r="E79">
+        <v>1513</v>
+      </c>
+      <c r="F79">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>247</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80">
+        <v>14048</v>
+      </c>
+      <c r="D80">
+        <v>638.28539999999998</v>
+      </c>
+      <c r="E80">
+        <v>12467</v>
+      </c>
+      <c r="F80">
+        <v>1.3629</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>248</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>1086</v>
+      </c>
+      <c r="D81">
+        <v>49.343499999999999</v>
+      </c>
+      <c r="E81">
+        <v>967</v>
+      </c>
+      <c r="F81">
+        <v>0.1057</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>249</v>
+      </c>
+      <c r="J81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82">
+        <v>1156</v>
+      </c>
+      <c r="D82">
+        <v>52.524099999999997</v>
+      </c>
+      <c r="E82">
+        <v>1015</v>
+      </c>
+      <c r="F82">
+        <v>0.111</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>250</v>
+      </c>
+      <c r="J82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83">
+        <v>1433</v>
+      </c>
+      <c r="D83">
+        <v>65.109800000000007</v>
+      </c>
+      <c r="E83">
+        <v>1300</v>
+      </c>
+      <c r="F83">
+        <v>0.1421</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s">
+        <v>251</v>
+      </c>
+      <c r="J83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84">
+        <v>3175</v>
+      </c>
+      <c r="D84">
+        <v>144.2594</v>
+      </c>
+      <c r="E84">
+        <v>2877</v>
+      </c>
+      <c r="F84">
+        <v>0.3145</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>252</v>
+      </c>
+      <c r="J84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85">
+        <v>4348</v>
+      </c>
+      <c r="D85">
+        <v>197.55590000000001</v>
+      </c>
+      <c r="E85">
+        <v>3918</v>
+      </c>
+      <c r="F85">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>253</v>
+      </c>
+      <c r="J85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86">
+        <v>9257</v>
+      </c>
+      <c r="D86">
+        <v>420.60140000000001</v>
+      </c>
+      <c r="E86">
+        <v>8254</v>
+      </c>
+      <c r="F86">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>254</v>
+      </c>
+      <c r="J86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>25</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87">
+        <v>1720</v>
+      </c>
+      <c r="D87">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="E87">
+        <v>1542</v>
+      </c>
+      <c r="F87">
+        <v>0.1686</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s">
+        <v>255</v>
+      </c>
+      <c r="J87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>32</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88">
+        <v>1662</v>
+      </c>
+      <c r="D88">
+        <v>75.514700000000005</v>
+      </c>
+      <c r="E88">
+        <v>1409</v>
+      </c>
+      <c r="F88">
+        <v>0.154</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s">
+        <v>256</v>
+      </c>
+      <c r="J88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89">
+        <v>2820</v>
+      </c>
+      <c r="D89">
+        <v>128.12960000000001</v>
+      </c>
+      <c r="E89">
+        <v>2437</v>
+      </c>
+      <c r="F89">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="G89">
+        <v>5</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s">
+        <v>257</v>
+      </c>
+      <c r="J89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>42</v>
+      </c>
+      <c r="B90" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1695</v>
+      </c>
+      <c r="D90">
+        <v>77.014099999999999</v>
+      </c>
+      <c r="E90">
+        <v>1578</v>
+      </c>
+      <c r="F90">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>258</v>
+      </c>
+      <c r="J90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1234</v>
+      </c>
+      <c r="D91">
+        <v>56.068100000000001</v>
+      </c>
+      <c r="E91">
+        <v>1058</v>
+      </c>
+      <c r="F91">
+        <v>0.1157</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
+        <v>259</v>
+      </c>
+      <c r="J91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>47</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="4">
+        <v>5981</v>
+      </c>
+      <c r="D92">
+        <v>271.75290000000001</v>
+      </c>
+      <c r="E92">
+        <v>5353</v>
+      </c>
+      <c r="F92">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>260</v>
+      </c>
+      <c r="J92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="4">
+        <v>3440</v>
+      </c>
+      <c r="D93">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="E93">
+        <v>3222</v>
+      </c>
+      <c r="F93">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s">
+        <v>261</v>
+      </c>
+      <c r="J93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>52</v>
+      </c>
+      <c r="B94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1198</v>
+      </c>
+      <c r="D94">
+        <v>54.432400000000001</v>
+      </c>
+      <c r="E94">
+        <v>1010</v>
+      </c>
+      <c r="F94">
+        <v>0.1104</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s">
+        <v>262</v>
+      </c>
+      <c r="J94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>55</v>
+      </c>
+      <c r="B95" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="4">
+        <v>7578</v>
+      </c>
+      <c r="D95">
+        <v>344.3143</v>
+      </c>
+      <c r="E95">
+        <v>7014</v>
+      </c>
+      <c r="F95">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s">
+        <v>263</v>
+      </c>
+      <c r="J95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>71</v>
+      </c>
+      <c r="B96" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96">
+        <v>2828</v>
+      </c>
+      <c r="D96">
+        <v>128.4931</v>
+      </c>
+      <c r="E96">
+        <v>2382</v>
+      </c>
+      <c r="F96">
+        <v>0.26040000000000002</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
+        <v>264</v>
+      </c>
+      <c r="J96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>72</v>
+      </c>
+      <c r="B97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1517</v>
+      </c>
+      <c r="D97">
+        <v>68.926500000000004</v>
+      </c>
+      <c r="E97">
+        <v>1292</v>
+      </c>
+      <c r="F97">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s">
+        <v>265</v>
+      </c>
+      <c r="J97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>73</v>
+      </c>
+      <c r="B98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98">
+        <v>3463</v>
+      </c>
+      <c r="D98">
+        <v>157.345</v>
+      </c>
+      <c r="E98">
+        <v>3266</v>
+      </c>
+      <c r="F98">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s">
+        <v>266</v>
+      </c>
+      <c r="J98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>77</v>
+      </c>
+      <c r="B99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99">
+        <v>1499</v>
+      </c>
+      <c r="D99">
+        <v>68.108599999999996</v>
+      </c>
+      <c r="E99">
+        <v>1281</v>
+      </c>
+      <c r="F99">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>267</v>
+      </c>
+      <c r="J99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>81</v>
+      </c>
+      <c r="B100" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="4">
+        <v>4370</v>
+      </c>
+      <c r="D100">
+        <v>198.55549999999999</v>
+      </c>
+      <c r="E100">
+        <v>3726</v>
+      </c>
+      <c r="F100">
+        <v>0.4073</v>
+      </c>
+      <c r="G100">
+        <v>5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s">
+        <v>268</v>
+      </c>
+      <c r="J100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101">
+        <v>1380</v>
+      </c>
+      <c r="D101">
+        <v>62.701700000000002</v>
+      </c>
+      <c r="E101">
+        <v>1238</v>
+      </c>
+      <c r="F101">
+        <v>0.1353</v>
+      </c>
+      <c r="G101">
+        <v>5</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>289</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1567</v>
+      </c>
+      <c r="D102">
+        <v>71.198300000000003</v>
+      </c>
+      <c r="E102">
+        <v>1388</v>
+      </c>
+      <c r="F102">
+        <v>0.1517</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>290</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="4">
+        <v>1532</v>
+      </c>
+      <c r="D103">
+        <v>69.608000000000004</v>
+      </c>
+      <c r="E103">
+        <v>1392</v>
+      </c>
+      <c r="F103">
+        <v>0.1522</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
+      </c>
+      <c r="H103" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>291</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104">
+        <v>3173</v>
+      </c>
+      <c r="D104">
+        <v>144.16849999999999</v>
+      </c>
+      <c r="E104">
+        <v>2619</v>
+      </c>
+      <c r="F104">
+        <v>0.2863</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>292</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" s="4">
+        <v>5232</v>
+      </c>
+      <c r="D105">
+        <v>237.72130000000001</v>
+      </c>
+      <c r="E105">
+        <v>4822</v>
+      </c>
+      <c r="F105">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" t="s">
+        <v>293</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="4">
+        <v>11614</v>
+      </c>
+      <c r="D106">
+        <v>527.69410000000005</v>
+      </c>
+      <c r="E106">
+        <v>10092</v>
+      </c>
+      <c r="F106">
+        <v>1.1032999999999999</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+      <c r="H106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>294</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107">
+        <v>1200</v>
+      </c>
+      <c r="D107">
+        <v>54.523200000000003</v>
+      </c>
+      <c r="E107">
+        <v>1082</v>
+      </c>
+      <c r="F107">
+        <v>0.1183</v>
+      </c>
+      <c r="G107">
+        <v>5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>295</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>32</v>
+      </c>
+      <c r="B108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108">
+        <v>1002</v>
+      </c>
+      <c r="D108">
+        <v>45.526899999999998</v>
+      </c>
+      <c r="E108">
+        <v>977</v>
+      </c>
+      <c r="F108">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="G108">
+        <v>5</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>296</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>40</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="4">
+        <v>2152</v>
+      </c>
+      <c r="D109" s="4">
+        <v>97.778300000000002</v>
+      </c>
+      <c r="E109" s="4">
+        <v>1865</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0.2039</v>
+      </c>
+      <c r="G109" s="4">
+        <v>5</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" t="s">
+        <v>297</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>42</v>
+      </c>
+      <c r="B110" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1677</v>
+      </c>
+      <c r="D110">
+        <v>76.196200000000005</v>
+      </c>
+      <c r="E110">
+        <v>1559</v>
+      </c>
+      <c r="F110">
+        <v>0.1704</v>
+      </c>
+      <c r="G110">
+        <v>5</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>298</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>46</v>
+      </c>
+      <c r="B111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1784</v>
+      </c>
+      <c r="D111" s="4">
+        <v>81.057900000000004</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1495</v>
+      </c>
+      <c r="F111" s="4">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="G111" s="4">
+        <v>5</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" t="s">
+        <v>299</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>47</v>
+      </c>
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112">
+        <v>5517</v>
+      </c>
+      <c r="D112">
+        <v>250.67060000000001</v>
+      </c>
+      <c r="E112">
+        <v>4788</v>
+      </c>
+      <c r="F112">
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="G112">
+        <v>5</v>
+      </c>
+      <c r="H112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" t="s">
+        <v>300</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>48</v>
+      </c>
+      <c r="B113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="4">
+        <v>2613</v>
+      </c>
+      <c r="D113" s="4">
+        <v>118.7244</v>
+      </c>
+      <c r="E113" s="4">
+        <v>2059</v>
+      </c>
+      <c r="F113" s="4">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="G113" s="4">
+        <v>5</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" t="s">
+        <v>301</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>52</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114">
+        <v>1222</v>
+      </c>
+      <c r="D114">
+        <v>55.522799999999997</v>
+      </c>
+      <c r="E114">
+        <v>1145</v>
+      </c>
+      <c r="F114">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="G114">
+        <v>5</v>
+      </c>
+      <c r="H114" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>302</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>55</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="4">
+        <v>8359</v>
+      </c>
+      <c r="D115">
+        <v>379.7998</v>
+      </c>
+      <c r="E115">
+        <v>6786</v>
+      </c>
+      <c r="F115">
+        <v>0.74180000000000001</v>
+      </c>
+      <c r="G115">
+        <v>5</v>
+      </c>
+      <c r="H115" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>303</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>71</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116">
+        <v>3476</v>
+      </c>
+      <c r="D116">
+        <v>157.9357</v>
+      </c>
+      <c r="E116">
+        <v>3298</v>
+      </c>
+      <c r="F116">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="G116">
+        <v>5</v>
+      </c>
+      <c r="H116" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" t="s">
+        <v>304</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>72</v>
+      </c>
+      <c r="B117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117">
+        <v>1617</v>
+      </c>
+      <c r="D117">
+        <v>73.470100000000002</v>
+      </c>
+      <c r="E117">
+        <v>1506</v>
+      </c>
+      <c r="F117">
+        <v>0.1646</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+      <c r="H117" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" t="s">
+        <v>305</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>73</v>
+      </c>
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118">
+        <v>1267</v>
+      </c>
+      <c r="D118">
+        <v>57.567500000000003</v>
+      </c>
+      <c r="E118">
+        <v>1233</v>
+      </c>
+      <c r="F118">
+        <v>0.1348</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" t="s">
+        <v>306</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>77</v>
+      </c>
+      <c r="B119" t="s">
+        <v>167</v>
+      </c>
+      <c r="C119">
+        <v>1397</v>
+      </c>
+      <c r="D119">
+        <v>63.4741</v>
+      </c>
+      <c r="E119">
+        <v>1263</v>
+      </c>
+      <c r="F119">
+        <v>0.1381</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>307</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>81</v>
+      </c>
+      <c r="B120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120">
+        <v>3385</v>
+      </c>
+      <c r="D120">
+        <v>153.80099999999999</v>
+      </c>
+      <c r="E120">
+        <v>3177</v>
+      </c>
+      <c r="F120">
+        <v>0.3473</v>
+      </c>
+      <c r="G120">
+        <v>5</v>
+      </c>
+      <c r="H120" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>308</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121">
+        <v>2834</v>
+      </c>
+      <c r="D121">
+        <v>128.76570000000001</v>
+      </c>
+      <c r="E121">
+        <v>2611</v>
+      </c>
+      <c r="F121">
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="G121">
+        <v>5</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" t="s">
+        <v>309</v>
+      </c>
+      <c r="J121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="4">
+        <v>6177</v>
+      </c>
+      <c r="D122" s="4">
+        <v>280.65839999999997</v>
+      </c>
+      <c r="E122" s="4">
+        <v>5726</v>
+      </c>
+      <c r="F122" s="4">
+        <v>0.626</v>
+      </c>
+      <c r="G122" s="4">
+        <v>5</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>310</v>
+      </c>
+      <c r="J122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123">
+        <v>2944</v>
+      </c>
+      <c r="D123">
+        <v>133.7637</v>
+      </c>
+      <c r="E123">
+        <v>2527</v>
+      </c>
+      <c r="F123">
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="G123">
+        <v>5</v>
+      </c>
+      <c r="H123" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>311</v>
+      </c>
+      <c r="J123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B124" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124">
+        <v>4996</v>
+      </c>
+      <c r="D124">
+        <v>226.9984</v>
+      </c>
+      <c r="E124">
+        <v>4651</v>
+      </c>
+      <c r="F124">
+        <v>0.50839999999999996</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="H124" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" t="s">
+        <v>312</v>
+      </c>
+      <c r="J124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125">
+        <v>3189</v>
+      </c>
+      <c r="D125">
+        <v>144.8955</v>
+      </c>
+      <c r="E125">
+        <v>3060</v>
+      </c>
+      <c r="F125">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="H125" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>313</v>
+      </c>
+      <c r="J125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>18</v>
+      </c>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="4">
+        <v>1932</v>
+      </c>
+      <c r="D126">
+        <v>87.782399999999996</v>
+      </c>
+      <c r="E126">
+        <v>1587</v>
+      </c>
+      <c r="F126">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="G126">
+        <v>5</v>
+      </c>
+      <c r="H126" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" t="s">
+        <v>314</v>
+      </c>
+      <c r="J126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>19</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" s="4">
+        <v>5806</v>
+      </c>
+      <c r="D127" s="4">
+        <v>263.80160000000001</v>
+      </c>
+      <c r="E127" s="4">
+        <v>5524</v>
+      </c>
+      <c r="F127" s="4">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="G127" s="4">
+        <v>5</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>315</v>
+      </c>
+      <c r="J127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" s="4">
+        <v>2806</v>
+      </c>
+      <c r="D128">
+        <v>127.4935</v>
+      </c>
+      <c r="E128">
+        <v>2483</v>
+      </c>
+      <c r="F128">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="G128">
+        <v>5</v>
+      </c>
+      <c r="H128" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" t="s">
+        <v>316</v>
+      </c>
+      <c r="J128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129">
+        <v>2634</v>
+      </c>
+      <c r="D129">
+        <v>119.6785</v>
+      </c>
+      <c r="E129">
+        <v>2283</v>
+      </c>
+      <c r="F129">
+        <v>0.24959999999999999</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" t="s">
+        <v>317</v>
+      </c>
+      <c r="J129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>24</v>
+      </c>
+      <c r="B130" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130">
+        <v>2315</v>
+      </c>
+      <c r="D130">
+        <v>105.1844</v>
+      </c>
+      <c r="E130">
+        <v>1917</v>
+      </c>
+      <c r="F130">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="G130">
+        <v>5</v>
+      </c>
+      <c r="H130" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" t="s">
+        <v>318</v>
+      </c>
+      <c r="J130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>25</v>
+      </c>
+      <c r="B131" t="s">
+        <v>62</v>
+      </c>
+      <c r="C131">
+        <v>2321</v>
+      </c>
+      <c r="D131">
+        <v>105.45699999999999</v>
+      </c>
+      <c r="E131">
+        <v>2044</v>
+      </c>
+      <c r="F131">
+        <v>0.2235</v>
+      </c>
+      <c r="G131">
+        <v>5</v>
+      </c>
+      <c r="H131" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" t="s">
+        <v>319</v>
+      </c>
+      <c r="J131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>28</v>
+      </c>
+      <c r="B132" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132">
+        <v>1551</v>
+      </c>
+      <c r="D132">
+        <v>70.471299999999999</v>
+      </c>
+      <c r="E132">
+        <v>1439</v>
+      </c>
+      <c r="F132">
+        <v>0.1573</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="H132" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" t="s">
+        <v>320</v>
+      </c>
+      <c r="J132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>29</v>
+      </c>
+      <c r="B133" t="s">
+        <v>70</v>
+      </c>
+      <c r="C133" s="4">
+        <v>1069</v>
+      </c>
+      <c r="D133" s="4">
+        <v>48.571100000000001</v>
+      </c>
+      <c r="E133" s="4">
+        <v>1042</v>
+      </c>
+      <c r="F133" s="4">
+        <v>0.1139</v>
+      </c>
+      <c r="G133" s="4">
+        <v>5</v>
+      </c>
+      <c r="H133" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" t="s">
+        <v>321</v>
+      </c>
+      <c r="J133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
+        <v>72</v>
+      </c>
+      <c r="C134">
+        <v>1368</v>
+      </c>
+      <c r="D134">
+        <v>62.156500000000001</v>
+      </c>
+      <c r="E134">
+        <v>1200</v>
+      </c>
+      <c r="F134">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="G134">
+        <v>5</v>
+      </c>
+      <c r="H134" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" t="s">
+        <v>322</v>
+      </c>
+      <c r="J134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>32</v>
+      </c>
+      <c r="B135" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1604</v>
+      </c>
+      <c r="D135">
+        <v>72.879400000000004</v>
+      </c>
+      <c r="E135">
+        <v>1386</v>
+      </c>
+      <c r="F135">
+        <v>0.1515</v>
+      </c>
+      <c r="G135">
+        <v>5</v>
+      </c>
+      <c r="H135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" t="s">
+        <v>323</v>
+      </c>
+      <c r="J135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>34</v>
+      </c>
+      <c r="B136" t="s">
+        <v>80</v>
+      </c>
+      <c r="C136" s="4">
+        <v>17666</v>
+      </c>
+      <c r="D136">
+        <v>802.673</v>
+      </c>
+      <c r="E136">
+        <v>16284</v>
+      </c>
+      <c r="F136">
+        <v>1.7802</v>
+      </c>
+      <c r="G136">
+        <v>5</v>
+      </c>
+      <c r="H136" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" t="s">
+        <v>324</v>
+      </c>
+      <c r="J136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>35</v>
+      </c>
+      <c r="B137" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="4">
+        <v>4559</v>
+      </c>
+      <c r="D137">
+        <v>207.1429</v>
+      </c>
+      <c r="E137">
+        <v>4151</v>
+      </c>
+      <c r="F137">
+        <v>0.45379999999999998</v>
+      </c>
+      <c r="G137">
+        <v>5</v>
+      </c>
+      <c r="H137" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" t="s">
+        <v>325</v>
+      </c>
+      <c r="J137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>46</v>
+      </c>
+      <c r="B138" t="s">
+        <v>104</v>
+      </c>
+      <c r="C138">
+        <v>3355</v>
+      </c>
+      <c r="D138">
+        <v>152.43790000000001</v>
+      </c>
+      <c r="E138">
+        <v>3101</v>
+      </c>
+      <c r="F138">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G138">
+        <v>5</v>
+      </c>
+      <c r="H138" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" t="s">
+        <v>326</v>
+      </c>
+      <c r="J138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>52</v>
+      </c>
+      <c r="B139" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139" s="4">
+        <v>3793</v>
+      </c>
+      <c r="D139">
+        <v>172.3389</v>
+      </c>
+      <c r="E139">
+        <v>3389</v>
+      </c>
+      <c r="F139">
+        <v>0.3705</v>
+      </c>
+      <c r="G139">
+        <v>5</v>
+      </c>
+      <c r="H139" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" t="s">
+        <v>327</v>
+      </c>
+      <c r="J139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>55</v>
+      </c>
+      <c r="B140" t="s">
+        <v>122</v>
+      </c>
+      <c r="C140">
+        <v>2567</v>
+      </c>
+      <c r="D140">
+        <v>116.6343</v>
+      </c>
+      <c r="E140">
+        <v>2355</v>
+      </c>
+      <c r="F140">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="G140">
+        <v>5</v>
+      </c>
+      <c r="H140" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" t="s">
+        <v>328</v>
+      </c>
+      <c r="J140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>57</v>
+      </c>
+      <c r="B141" t="s">
+        <v>126</v>
+      </c>
+      <c r="C141">
+        <v>2430</v>
+      </c>
+      <c r="D141">
+        <v>110.4096</v>
+      </c>
+      <c r="E141">
+        <v>2295</v>
+      </c>
+      <c r="F141">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="G141">
+        <v>5</v>
+      </c>
+      <c r="H141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" t="s">
+        <v>329</v>
+      </c>
+      <c r="J141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>60</v>
+      </c>
+      <c r="B142" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142">
+        <v>1868</v>
+      </c>
+      <c r="D142">
+        <v>84.874499999999998</v>
+      </c>
+      <c r="E142">
+        <v>1764</v>
+      </c>
+      <c r="F142">
+        <v>0.1928</v>
+      </c>
+      <c r="G142">
+        <v>5</v>
+      </c>
+      <c r="H142" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" t="s">
+        <v>330</v>
+      </c>
+      <c r="J142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>62</v>
+      </c>
+      <c r="B143" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143">
+        <v>1046</v>
+      </c>
+      <c r="D143">
+        <v>47.5261</v>
+      </c>
+      <c r="E143">
+        <v>915</v>
+      </c>
+      <c r="F143">
+        <v>0.1</v>
+      </c>
+      <c r="G143">
+        <v>5</v>
+      </c>
+      <c r="H143" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" t="s">
+        <v>331</v>
+      </c>
+      <c r="J143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>65</v>
+      </c>
+      <c r="B144" t="s">
+        <v>142</v>
+      </c>
+      <c r="C144">
+        <v>1855</v>
+      </c>
+      <c r="D144">
+        <v>84.283799999999999</v>
+      </c>
+      <c r="E144">
+        <v>1635</v>
+      </c>
+      <c r="F144">
+        <v>0.1787</v>
+      </c>
+      <c r="G144">
+        <v>5</v>
+      </c>
+      <c r="H144" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" t="s">
+        <v>332</v>
+      </c>
+      <c r="J144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>68</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145">
+        <v>1782</v>
+      </c>
+      <c r="D145">
+        <v>80.966999999999999</v>
+      </c>
+      <c r="E145">
+        <v>1677</v>
+      </c>
+      <c r="F145">
+        <v>0.18329999999999999</v>
+      </c>
+      <c r="G145">
+        <v>5</v>
+      </c>
+      <c r="H145" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" t="s">
+        <v>333</v>
+      </c>
+      <c r="J145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>69</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1062</v>
+      </c>
+      <c r="D146" s="4">
+        <v>48.253100000000003</v>
+      </c>
+      <c r="E146" s="4">
+        <v>986</v>
+      </c>
+      <c r="F146" s="4">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="G146" s="4">
+        <v>5</v>
+      </c>
+      <c r="H146" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" t="s">
+        <v>334</v>
+      </c>
+      <c r="J146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>71</v>
+      </c>
+      <c r="B147" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147">
+        <v>1689</v>
+      </c>
+      <c r="D147">
+        <v>76.741500000000002</v>
+      </c>
+      <c r="E147">
+        <v>1402</v>
+      </c>
+      <c r="F147">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="G147">
+        <v>5</v>
+      </c>
+      <c r="H147" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" t="s">
+        <v>335</v>
+      </c>
+      <c r="J147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>74</v>
+      </c>
+      <c r="B148" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148">
+        <v>1658</v>
+      </c>
+      <c r="D148">
+        <v>75.332899999999995</v>
+      </c>
+      <c r="E148">
+        <v>1481</v>
+      </c>
+      <c r="F148">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="G148">
+        <v>5</v>
+      </c>
+      <c r="H148" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" t="s">
+        <v>336</v>
+      </c>
+      <c r="J148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>85</v>
+      </c>
+      <c r="B149" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149" s="4">
+        <v>13879</v>
+      </c>
+      <c r="D149">
+        <v>630.60670000000005</v>
+      </c>
+      <c r="E149">
+        <v>12842</v>
+      </c>
+      <c r="F149">
+        <v>1.4038999999999999</v>
+      </c>
+      <c r="G149">
+        <v>5</v>
+      </c>
+      <c r="H149" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" t="s">
+        <v>337</v>
+      </c>
+      <c r="J149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1234</v>
+      </c>
+      <c r="D150">
+        <v>56.068100000000001</v>
+      </c>
+      <c r="E150">
+        <v>1169</v>
+      </c>
+      <c r="F150">
+        <v>0.1278</v>
+      </c>
+      <c r="G150">
+        <v>4</v>
+      </c>
+      <c r="H150" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" t="s">
+        <v>204</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151">
+        <v>5400</v>
+      </c>
+      <c r="D151">
+        <v>245.3546</v>
+      </c>
+      <c r="E151">
+        <v>5110</v>
+      </c>
+      <c r="F151">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="G151">
+        <v>4</v>
+      </c>
+      <c r="H151" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" t="s">
+        <v>205</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>55</v>
+      </c>
+      <c r="C152">
+        <v>1063</v>
+      </c>
+      <c r="D152">
+        <v>48.298499999999997</v>
+      </c>
+      <c r="E152">
+        <v>926</v>
+      </c>
+      <c r="F152">
+        <v>0.1012</v>
+      </c>
+      <c r="G152">
+        <v>4</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s">
+        <v>206</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>35</v>
+      </c>
+      <c r="B153" t="s">
+        <v>83</v>
+      </c>
+      <c r="C153" s="4">
+        <v>1381</v>
+      </c>
+      <c r="D153" s="4">
+        <v>62.747199999999999</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1231</v>
+      </c>
+      <c r="F153" s="4">
+        <v>0.1346</v>
+      </c>
+      <c r="G153" s="4">
+        <v>4</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" t="s">
+        <v>207</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>36</v>
+      </c>
+      <c r="B154" t="s">
+        <v>85</v>
+      </c>
+      <c r="C154" s="4">
+        <v>1893</v>
+      </c>
+      <c r="D154" s="4">
+        <v>86.010400000000004</v>
+      </c>
+      <c r="E154" s="4">
+        <v>1526</v>
+      </c>
+      <c r="F154" s="4">
+        <v>0.1668</v>
+      </c>
+      <c r="G154" s="4">
+        <v>4</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" t="s">
+        <v>208</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>37</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155">
+        <v>4975</v>
+      </c>
+      <c r="D155">
+        <v>226.04429999999999</v>
+      </c>
+      <c r="E155">
+        <v>4398</v>
+      </c>
+      <c r="F155">
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="G155">
+        <v>4</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" t="s">
+        <v>209</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>44</v>
+      </c>
+      <c r="B156" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156">
+        <v>2268</v>
+      </c>
+      <c r="D156">
+        <v>103.0489</v>
+      </c>
+      <c r="E156">
+        <v>1954</v>
+      </c>
+      <c r="F156">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="G156">
+        <v>4</v>
+      </c>
+      <c r="H156" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" t="s">
+        <v>210</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>49</v>
+      </c>
+      <c r="B157" t="s">
+        <v>111</v>
+      </c>
+      <c r="C157">
+        <v>1014</v>
+      </c>
+      <c r="D157">
+        <v>46.072099999999999</v>
+      </c>
+      <c r="E157">
+        <v>873</v>
+      </c>
+      <c r="F157">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="G157">
+        <v>4</v>
+      </c>
+      <c r="H157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" t="s">
+        <v>211</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>57</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C158">
+        <v>2208</v>
+      </c>
+      <c r="D158">
+        <v>100.3228</v>
+      </c>
+      <c r="E158">
+        <v>2004</v>
+      </c>
+      <c r="F158">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="G158">
+        <v>4</v>
+      </c>
+      <c r="H158" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" t="s">
+        <v>212</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>60</v>
+      </c>
+      <c r="B159" t="s">
+        <v>133</v>
+      </c>
+      <c r="C159">
+        <v>2143</v>
+      </c>
+      <c r="D159">
+        <v>97.369399999999999</v>
+      </c>
+      <c r="E159">
+        <v>1931</v>
+      </c>
+      <c r="F159">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="G159">
+        <v>4</v>
+      </c>
+      <c r="H159" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" t="s">
+        <v>213</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>62</v>
+      </c>
+      <c r="B160" t="s">
+        <v>137</v>
+      </c>
+      <c r="C160">
+        <v>2105</v>
+      </c>
+      <c r="D160">
+        <v>95.642899999999997</v>
+      </c>
+      <c r="E160">
+        <v>1823</v>
+      </c>
+      <c r="F160">
+        <v>0.1993</v>
+      </c>
+      <c r="G160">
+        <v>4</v>
+      </c>
+      <c r="H160" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" t="s">
+        <v>214</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>79</v>
+      </c>
+      <c r="B161" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161">
+        <v>3252</v>
+      </c>
+      <c r="D161">
+        <v>147.75800000000001</v>
+      </c>
+      <c r="E161">
+        <v>2980</v>
+      </c>
+      <c r="F161">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="G161">
+        <v>4</v>
+      </c>
+      <c r="H161" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" t="s">
+        <v>215</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>86</v>
+      </c>
+      <c r="B162" t="s">
+        <v>185</v>
+      </c>
+      <c r="C162">
+        <v>3121</v>
+      </c>
+      <c r="D162">
+        <v>141.80590000000001</v>
+      </c>
+      <c r="E162">
+        <v>2801</v>
+      </c>
+      <c r="F162">
+        <v>0.30620000000000003</v>
+      </c>
+      <c r="G162">
+        <v>4</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s">
+        <v>216</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>13</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163">
+        <v>1988</v>
+      </c>
+      <c r="D163">
+        <v>90.326800000000006</v>
+      </c>
+      <c r="E163">
+        <v>1818</v>
+      </c>
+      <c r="F163">
+        <v>0.19869999999999999</v>
+      </c>
+      <c r="G163">
+        <v>4</v>
+      </c>
+      <c r="H163" t="s">
+        <v>17</v>
+      </c>
+      <c r="I163" t="s">
+        <v>217</v>
+      </c>
+      <c r="J163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>66</v>
+      </c>
+      <c r="B164" t="s">
+        <v>146</v>
+      </c>
+      <c r="C164" s="4">
+        <v>1373</v>
+      </c>
+      <c r="D164">
+        <v>62.383699999999997</v>
+      </c>
+      <c r="E164">
+        <v>1185</v>
+      </c>
+      <c r="F164">
+        <v>0.1295</v>
+      </c>
+      <c r="G164">
+        <v>4</v>
+      </c>
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164" t="s">
+        <v>218</v>
+      </c>
+      <c r="J164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>182</v>
+      </c>
+      <c r="C165" s="4">
+        <v>1028</v>
+      </c>
+      <c r="D165">
+        <v>46.708199999999998</v>
+      </c>
+      <c r="E165">
+        <v>873</v>
+      </c>
+      <c r="F165">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="G165">
+        <v>4</v>
+      </c>
+      <c r="H165" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" t="s">
+        <v>219</v>
+      </c>
+      <c r="J165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" s="4">
+        <v>1965</v>
+      </c>
+      <c r="D166">
+        <v>89.281800000000004</v>
+      </c>
+      <c r="E166">
+        <v>1795</v>
+      </c>
+      <c r="F166">
+        <v>0.19620000000000001</v>
+      </c>
+      <c r="G166">
+        <v>4</v>
+      </c>
+      <c r="H166" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" t="s">
+        <v>273</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>66</v>
+      </c>
+      <c r="B167" t="s">
+        <v>145</v>
+      </c>
+      <c r="C167">
+        <v>1366</v>
+      </c>
+      <c r="D167">
+        <v>62.065600000000003</v>
+      </c>
+      <c r="E167">
+        <v>1215</v>
+      </c>
+      <c r="F167">
+        <v>0.1328</v>
+      </c>
+      <c r="G167">
+        <v>4</v>
+      </c>
+      <c r="H167" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" t="s">
+        <v>274</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>84</v>
+      </c>
+      <c r="B168" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168">
+        <v>1193</v>
+      </c>
+      <c r="D168">
+        <v>54.205199999999998</v>
+      </c>
+      <c r="E168">
+        <v>1114</v>
+      </c>
+      <c r="F168">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="G168">
+        <v>4</v>
+      </c>
+      <c r="H168" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" t="s">
+        <v>275</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B169" t="s">
+        <v>39</v>
+      </c>
+      <c r="C169">
+        <v>1358</v>
+      </c>
+      <c r="D169">
+        <v>61.702100000000002</v>
+      </c>
+      <c r="E169">
+        <v>1253</v>
+      </c>
+      <c r="F169">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G169">
+        <v>4</v>
+      </c>
+      <c r="H169" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" t="s">
+        <v>276</v>
+      </c>
+      <c r="J169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
+      <c r="B170" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170">
+        <v>5623</v>
+      </c>
+      <c r="D170">
+        <v>255.48679999999999</v>
+      </c>
+      <c r="E170">
+        <v>5075</v>
+      </c>
+      <c r="F170">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="G170">
+        <v>4</v>
+      </c>
+      <c r="H170" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" t="s">
+        <v>277</v>
+      </c>
+      <c r="J170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>22</v>
+      </c>
+      <c r="B171" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" s="4">
+        <v>1062</v>
+      </c>
+      <c r="D171" s="4">
+        <v>48.253100000000003</v>
+      </c>
+      <c r="E171" s="4">
+        <v>937</v>
+      </c>
+      <c r="F171" s="4">
+        <v>0.1024</v>
+      </c>
+      <c r="G171" s="4">
+        <v>4</v>
+      </c>
+      <c r="H171" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" t="s">
+        <v>278</v>
+      </c>
+      <c r="J171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>36</v>
+      </c>
+      <c r="B172" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="4">
+        <v>1579</v>
+      </c>
+      <c r="D172">
+        <v>71.743499999999997</v>
+      </c>
+      <c r="E172">
+        <v>1499</v>
+      </c>
+      <c r="F172">
+        <v>0.16389999999999999</v>
+      </c>
+      <c r="G172">
+        <v>4</v>
+      </c>
+      <c r="H172" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" t="s">
+        <v>279</v>
+      </c>
+      <c r="J172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>37</v>
+      </c>
+      <c r="B173" t="s">
+        <v>86</v>
+      </c>
+      <c r="C173" s="4">
+        <v>1276</v>
+      </c>
+      <c r="D173" s="4">
+        <v>57.976399999999998</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1173</v>
+      </c>
+      <c r="F173" s="4">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="G173" s="4">
+        <v>4</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" t="s">
+        <v>280</v>
+      </c>
+      <c r="J173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>38</v>
+      </c>
+      <c r="B174" t="s">
+        <v>88</v>
+      </c>
+      <c r="C174">
+        <v>4367</v>
+      </c>
+      <c r="D174">
+        <v>198.41919999999999</v>
+      </c>
+      <c r="E174">
+        <v>3768</v>
+      </c>
+      <c r="F174">
+        <v>0.41189999999999999</v>
+      </c>
+      <c r="G174">
+        <v>4</v>
+      </c>
+      <c r="H174" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" t="s">
+        <v>281</v>
+      </c>
+      <c r="J174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>45</v>
+      </c>
+      <c r="B175" t="s">
+        <v>102</v>
+      </c>
+      <c r="C175">
+        <v>2268</v>
+      </c>
+      <c r="D175">
+        <v>103.0489</v>
+      </c>
+      <c r="E175">
+        <v>2062</v>
+      </c>
+      <c r="F175">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="G175">
+        <v>4</v>
+      </c>
+      <c r="H175" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" t="s">
+        <v>282</v>
+      </c>
+      <c r="J175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>50</v>
+      </c>
+      <c r="B176" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176">
+        <v>1253</v>
+      </c>
+      <c r="D176">
+        <v>56.931399999999996</v>
+      </c>
+      <c r="E176">
+        <v>947</v>
+      </c>
+      <c r="F176">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="G176">
+        <v>4</v>
+      </c>
+      <c r="H176" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" t="s">
+        <v>283</v>
+      </c>
+      <c r="J176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>58</v>
+      </c>
+      <c r="B177" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177">
+        <v>2206</v>
+      </c>
+      <c r="D177">
+        <v>100.2319</v>
+      </c>
+      <c r="E177">
+        <v>1934</v>
+      </c>
+      <c r="F177">
+        <v>0.2114</v>
+      </c>
+      <c r="G177">
+        <v>4</v>
+      </c>
+      <c r="H177" t="s">
+        <v>18</v>
+      </c>
+      <c r="I177" t="s">
+        <v>284</v>
+      </c>
+      <c r="J177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>61</v>
+      </c>
+      <c r="B178" t="s">
+        <v>134</v>
+      </c>
+      <c r="C178" s="4">
+        <v>2611</v>
+      </c>
+      <c r="D178">
+        <v>118.6335</v>
+      </c>
+      <c r="E178">
+        <v>2169</v>
+      </c>
+      <c r="F178">
+        <v>0.23710000000000001</v>
+      </c>
+      <c r="G178">
+        <v>4</v>
+      </c>
+      <c r="H178" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" t="s">
+        <v>285</v>
+      </c>
+      <c r="J178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>63</v>
+      </c>
+      <c r="B179" t="s">
+        <v>138</v>
+      </c>
+      <c r="C179">
+        <v>2108</v>
+      </c>
+      <c r="D179">
+        <v>95.779200000000003</v>
+      </c>
+      <c r="E179">
+        <v>1803</v>
+      </c>
+      <c r="F179">
+        <v>0.1971</v>
+      </c>
+      <c r="G179">
+        <v>4</v>
+      </c>
+      <c r="H179" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" t="s">
+        <v>286</v>
+      </c>
+      <c r="J179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>79</v>
+      </c>
+      <c r="B180" t="s">
+        <v>172</v>
+      </c>
+      <c r="C180" s="4">
+        <v>3389</v>
+      </c>
+      <c r="D180">
+        <v>153.98269999999999</v>
+      </c>
+      <c r="E180">
+        <v>2646</v>
+      </c>
+      <c r="F180">
+        <v>0.2893</v>
+      </c>
+      <c r="G180">
+        <v>4</v>
+      </c>
+      <c r="H180" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" t="s">
+        <v>287</v>
+      </c>
+      <c r="J180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>86</v>
+      </c>
+      <c r="B181" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181" s="4">
+        <v>3655</v>
+      </c>
+      <c r="D181">
+        <v>166.06870000000001</v>
+      </c>
+      <c r="E181">
+        <v>3126</v>
+      </c>
+      <c r="F181">
+        <v>0.3417</v>
+      </c>
+      <c r="G181">
+        <v>4</v>
+      </c>
+      <c r="H181" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" t="s">
+        <v>288</v>
+      </c>
+      <c r="J181" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J181">
+    <sortCondition descending="1" ref="G2:G181"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>